--- a/members.xlsx
+++ b/members.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
   <si>
     <t>Id</t>
   </si>
@@ -31,19 +31,25 @@
     <t>Date</t>
   </si>
   <si>
-    <t>jaiswla</t>
+    <t>Chirag</t>
+  </si>
+  <si>
+    <t>Rastogi</t>
+  </si>
+  <si>
+    <t>Meerut</t>
+  </si>
+  <si>
+    <t>Siyana</t>
+  </si>
+  <si>
+    <t>2021-03-19T18:30:00.000Z</t>
   </si>
   <si>
     <t>Kumar</t>
   </si>
   <si>
-    <t>MUZAFFARPUR</t>
-  </si>
-  <si>
-    <t>laxmi chowk</t>
-  </si>
-  <si>
-    <t>2022-03-06T18:30:00.000Z</t>
+    <t>2021-03-21T18:30:00.000Z</t>
   </si>
 </sst>
 </file>
@@ -420,10 +426,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="6" width="10" customWidth="1"/>
+    <col min="1" max="3" width="10" customWidth="1"/>
+    <col min="4" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -464,6 +471,66 @@
       </c>
       <c r="F2" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>103</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/members.xlsx
+++ b/members.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="13">
   <si>
     <t>Id</t>
   </si>
@@ -426,7 +426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="3" width="10" customWidth="1"/>
@@ -533,6 +533,46 @@
         <v>12</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>104</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>105</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/members.xlsx
+++ b/members.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
   <si>
     <t>Id</t>
   </si>
@@ -426,7 +426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="3" width="10" customWidth="1"/>
@@ -533,46 +533,6 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>104</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>105</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
